--- a/Parts-List/MainBody-Parts.xlsx
+++ b/Parts-List/MainBody-Parts.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\Parts-List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\LifeHackWebsite\Parts-List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D9278CE-2754-4E76-ACF8-FF0FC2455A3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D6F82E25-2682-40A6-9255-F47BB674A406}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Main Body" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="248">
   <si>
     <t>Part name</t>
   </si>
@@ -775,12 +774,15 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>ASI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
@@ -874,7 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -887,6 +889,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1201,11 +1205,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA71141C-151F-43C1-915F-71A58ADC8951}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1242,7 +1246,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -1282,7 +1286,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1303,7 +1307,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1324,7 +1328,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1345,7 +1349,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1366,7 +1370,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1401,7 +1405,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1423,7 +1427,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2437,10 +2441,10 @@
       <c r="C72" t="s">
         <v>40</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72" s="2">
+      <c r="D72" s="12">
+        <v>1</v>
+      </c>
+      <c r="E72" s="13">
         <v>24.96</v>
       </c>
       <c r="F72" s="2">
@@ -2458,10 +2462,10 @@
       <c r="C73" t="s">
         <v>40</v>
       </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73" s="2">
+      <c r="D73" s="12">
+        <v>1</v>
+      </c>
+      <c r="E73" s="13">
         <v>17.850000000000001</v>
       </c>
       <c r="F73" s="2">
@@ -2479,10 +2483,10 @@
       <c r="C74" t="s">
         <v>40</v>
       </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74" s="2">
+      <c r="D74" s="12">
+        <v>1</v>
+      </c>
+      <c r="E74" s="13">
         <v>5.64</v>
       </c>
       <c r="F74" s="2">
@@ -3555,7 +3559,7 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+      <c r="A134" s="12" t="s">
         <v>216</v>
       </c>
       <c r="B134" t="s">

--- a/Parts-List/MainBody-Parts.xlsx
+++ b/Parts-List/MainBody-Parts.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Main Body" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1209,7 +1210,7 @@
   <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Parts-List/MainBody-Parts.xlsx
+++ b/Parts-List/MainBody-Parts.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\LifeHackWebsite\Parts-List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\Parts-List\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643DA5F4-7E98-4ECE-906F-9768AF64A47E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Body" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="250">
   <si>
     <t>Part name</t>
   </si>
@@ -102,9 +103,6 @@
     <t>DASI/OLY-TRANS-ILLUM</t>
   </si>
   <si>
-    <t>Include 940nm LED (no regulator)</t>
-  </si>
-  <si>
     <t>Cairn-dichroic-ASI stage custom rig</t>
   </si>
   <si>
@@ -120,9 +118,6 @@
     <t>DASI/US/PZ2500-IOM</t>
   </si>
   <si>
-    <t>Includes: Objective basket</t>
-  </si>
-  <si>
     <t>LifeHack TriCube</t>
   </si>
   <si>
@@ -465,9 +460,6 @@
     <t>CRISP-5 ASSEMBLY</t>
   </si>
   <si>
-    <t>DASI/CRISP-850</t>
-  </si>
-  <si>
     <t>zoom-tube-lens</t>
   </si>
   <si>
@@ -642,9 +634,6 @@
     <t>874-0374</t>
   </si>
   <si>
-    <t>microscope-pathA-imageAutofocus</t>
-  </si>
-  <si>
     <t>pathA-optics</t>
   </si>
   <si>
@@ -654,9 +643,6 @@
     <t>BFS-U3-51S5M-C</t>
   </si>
   <si>
-    <t>PointGrey</t>
-  </si>
-  <si>
     <t>Coarse ±1 mm XY Slip Plate Positioner</t>
   </si>
   <si>
@@ -771,19 +757,40 @@
     <t>900nm Dichroic</t>
   </si>
   <si>
-    <t>DMSP900R</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>ASI</t>
+  </si>
+  <si>
+    <t>Include 850nm LED (no regulator)</t>
+  </si>
+  <si>
+    <t>Includes: Objective basket if requested through Cairn research</t>
+  </si>
+  <si>
+    <t>DASI/CRISP-940</t>
+  </si>
+  <si>
+    <t>microscope-pathA-imageAutofocus (Imlock)</t>
+  </si>
+  <si>
+    <t>FLIR</t>
+  </si>
+  <si>
+    <t>DMLP900R</t>
+  </si>
+  <si>
+    <t>850nm Bandpass</t>
+  </si>
+  <si>
+    <t>FBH850-40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
@@ -877,7 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -890,8 +897,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1206,24 +1211,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.7265625" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="48.26953125" customWidth="1"/>
+    <col min="1" max="1" width="85.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1246,8 +1251,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -1267,19 +1272,19 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1287,7 +1292,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1300,7 +1305,7 @@
         <v>2633.84</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1308,7 +1313,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1321,7 +1326,7 @@
         <v>321.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1329,7 +1334,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1342,7 +1347,7 @@
         <v>682.55</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1350,7 +1355,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1363,7 +1368,7 @@
         <v>441.65</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1371,7 +1376,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1384,29 +1389,29 @@
         <v>3015.27</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1420,15 +1425,15 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1441,15 +1446,15 @@
         <v>18047.43</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1465,16 +1470,16 @@
         <v>2250</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
-      </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1492,15 +1497,15 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1513,26 +1518,26 @@
         <v>12445.6</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1545,15 +1550,15 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1567,15 +1572,15 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1588,15 +1593,15 @@
         <v>156.05000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1609,15 +1614,15 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1630,15 +1635,15 @@
         <v>372.53</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1651,22 +1656,22 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1679,15 +1684,15 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1700,22 +1705,22 @@
         <v>60.87</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1728,15 +1733,15 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1749,22 +1754,22 @@
         <v>96.58</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1778,15 +1783,15 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1799,22 +1804,22 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
         <v>63</v>
-      </c>
-      <c r="B35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" t="s">
-        <v>65</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1827,15 +1832,15 @@
         <v>12650</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
         <v>66</v>
-      </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1848,12 +1853,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -1864,22 +1869,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1892,15 +1897,15 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1913,15 +1918,15 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -1934,22 +1939,22 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1962,15 +1967,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1983,15 +1988,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2004,9 +2009,9 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2">
@@ -2014,15 +2019,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2035,15 +2040,15 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2056,33 +2061,33 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2095,15 +2100,15 @@
         <v>2606.0100000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2116,22 +2121,22 @@
         <v>149.33000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2144,15 +2149,15 @@
         <v>183.01</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2165,22 +2170,22 @@
         <v>148.91999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2193,15 +2198,15 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2214,22 +2219,22 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D61">
         <v>4</v>
@@ -2242,15 +2247,15 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2263,15 +2268,15 @@
         <v>35.46</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -2285,15 +2290,15 @@
       </c>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2307,15 +2312,15 @@
       </c>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2329,15 +2334,15 @@
       </c>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -2351,22 +2356,22 @@
       </c>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -2380,15 +2385,15 @@
       </c>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -2401,15 +2406,15 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2422,9 +2427,9 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -2432,62 +2437,62 @@
       <c r="E71" s="8"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2">
+        <v>24.96</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="0"/>
+        <v>24.96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" t="s">
         <v>118</v>
       </c>
-      <c r="C72" t="s">
-        <v>40</v>
-      </c>
-      <c r="D72" s="12">
-        <v>1</v>
-      </c>
-      <c r="E72" s="13">
-        <v>24.96</v>
-      </c>
-      <c r="F72" s="2">
-        <f t="shared" si="0"/>
-        <v>24.96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="C73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="0"/>
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>119</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>120</v>
       </c>
-      <c r="C73" t="s">
-        <v>40</v>
-      </c>
-      <c r="D73" s="12">
-        <v>1</v>
-      </c>
-      <c r="E73" s="13">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="F73" s="2">
-        <f t="shared" si="0"/>
-        <v>17.850000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>121</v>
-      </c>
-      <c r="B74" t="s">
-        <v>122</v>
-      </c>
       <c r="C74" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" s="12">
-        <v>1</v>
-      </c>
-      <c r="E74" s="13">
+        <v>38</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2">
         <v>5.64</v>
       </c>
       <c r="F74" s="2">
@@ -2495,23 +2500,23 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -2524,15 +2529,15 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -2545,15 +2550,15 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2566,15 +2571,15 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -2587,15 +2592,15 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -2608,22 +2613,22 @@
         <v>131.29</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -2636,18 +2641,18 @@
         <v>120</v>
       </c>
       <c r="G82" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>135</v>
+      </c>
+      <c r="B83" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>137</v>
-      </c>
-      <c r="B83" t="s">
-        <v>138</v>
-      </c>
       <c r="C83" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -2661,15 +2666,15 @@
       </c>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B84" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -2682,26 +2687,26 @@
         <v>92.92</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B87" t="s">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2715,22 +2720,22 @@
       </c>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B89" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C89" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -2743,15 +2748,15 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2764,22 +2769,22 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -2792,15 +2797,15 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -2813,15 +2818,15 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C94" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -2834,15 +2839,15 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B95" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C95" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -2855,22 +2860,22 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -2883,15 +2888,15 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B98" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2904,15 +2909,15 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B99" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C99" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -2925,22 +2930,22 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B101" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C101" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2953,15 +2958,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B102" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C102" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2974,15 +2979,15 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B103" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C103" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -2995,22 +3000,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B105" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C105" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -3023,15 +3028,15 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B106" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C106" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -3045,22 +3050,22 @@
       </c>
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B108" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C108" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -3073,15 +3078,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B109">
         <v>1438</v>
       </c>
       <c r="C109" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -3094,15 +3099,15 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B110" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C110" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -3115,15 +3120,15 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B111" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C111" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -3136,15 +3141,15 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B112" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C112" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -3157,15 +3162,15 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B113" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C113" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -3178,15 +3183,15 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B114" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C114" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -3199,15 +3204,15 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B115" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C115" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -3221,15 +3226,15 @@
       </c>
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B116" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C116" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -3242,15 +3247,15 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B117" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C117" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -3263,15 +3268,15 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B118" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C118" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -3284,15 +3289,15 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B119" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C119" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -3305,15 +3310,15 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B120" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C120" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -3327,15 +3332,15 @@
       </c>
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B121" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C121" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -3349,15 +3354,15 @@
       </c>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B122" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C122" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -3371,33 +3376,33 @@
       </c>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B126" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C126" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -3411,15 +3416,15 @@
       </c>
       <c r="G126" s="4"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B127" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C127" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -3432,15 +3437,15 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C128" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -3453,15 +3458,15 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B129" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C129" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -3474,15 +3479,15 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B130" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C130" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -3495,15 +3500,15 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B131" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C131" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -3517,15 +3522,15 @@
       </c>
       <c r="G131" s="4"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B132" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C132" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D132">
         <v>4</v>
@@ -3538,15 +3543,15 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B133" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C133" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -3559,15 +3564,15 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="12" t="s">
-        <v>216</v>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>211</v>
       </c>
       <c r="B134" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C134" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -3580,26 +3585,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B137" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -3613,15 +3618,15 @@
       </c>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B138" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -3635,15 +3640,15 @@
       </c>
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B139" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -3657,26 +3662,26 @@
       </c>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B142" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C142" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -3685,20 +3690,20 @@
         <v>401</v>
       </c>
       <c r="F142" s="2">
-        <f t="shared" ref="F142:F151" si="4">D142*E142</f>
+        <f t="shared" ref="F142:F152" si="4">D142*E142</f>
         <v>401</v>
       </c>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B143" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C143" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -3712,15 +3717,15 @@
       </c>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B144" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C144" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -3734,15 +3739,15 @@
       </c>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B145" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C145" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -3756,15 +3761,15 @@
       </c>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B146" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C146" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -3778,15 +3783,15 @@
       </c>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B147" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C147" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -3800,15 +3805,15 @@
       </c>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B148" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C148" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -3822,15 +3827,15 @@
       </c>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B149" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C149" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -3844,15 +3849,15 @@
       </c>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B150" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C150" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -3866,34 +3871,55 @@
       </c>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B151" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C151" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D151">
         <v>1</v>
       </c>
       <c r="E151" s="11">
-        <v>405.8</v>
+        <v>298.67</v>
       </c>
       <c r="F151" s="2">
         <f t="shared" si="4"/>
-        <v>405.8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F153" s="2">
-        <f>SUM(F2:F151)</f>
-        <v>80310.417000000016</v>
+        <v>298.67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>248</v>
+      </c>
+      <c r="B152" t="s">
+        <v>249</v>
+      </c>
+      <c r="C152" t="s">
+        <v>38</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" s="11">
+        <v>112.5</v>
+      </c>
+      <c r="F152" s="2">
+        <f t="shared" si="4"/>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F154" s="2">
+        <f>SUM(F2:F152)</f>
+        <v>80315.787000000011</v>
       </c>
     </row>
   </sheetData>

--- a/Parts-List/MainBody-Parts.xlsx
+++ b/Parts-List/MainBody-Parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\Parts-List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\LifeHackWebsite\Parts-List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643DA5F4-7E98-4ECE-906F-9768AF64A47E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78C56E3-85A3-419E-BE35-7EBD33766043}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2505" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Body" sheetId="1" r:id="rId1"/>
@@ -583,12 +583,6 @@
     <t>CPC Farnell</t>
   </si>
   <si>
-    <t>Rocker switch</t>
-  </si>
-  <si>
-    <t>533-2964</t>
-  </si>
-  <si>
     <t>Arduino enclosure</t>
   </si>
   <si>
@@ -785,6 +779,12 @@
   </si>
   <si>
     <t>FBH850-40</t>
+  </si>
+  <si>
+    <t>DPDT Rocker switch</t>
+  </si>
+  <si>
+    <t>907-7071</t>
   </si>
 </sst>
 </file>
@@ -1214,21 +1214,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:F114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="85.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" customWidth="1"/>
+    <col min="1" max="1" width="85.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="48.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1272,19 +1272,19 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1305,7 +1305,7 @@
         <v>2633.84</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1326,7 +1326,7 @@
         <v>321.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1347,7 +1347,7 @@
         <v>682.55</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1368,7 +1368,7 @@
         <v>441.65</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1389,21 +1389,21 @@
         <v>3015.27</v>
       </c>
       <c r="G9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1446,10 +1446,10 @@
         <v>18047.43</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1518,18 +1518,18 @@
         <v>12445.6</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>156.05000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>372.53</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1656,14 +1656,14 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1705,14 +1705,14 @@
         <v>60.87</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1754,14 +1754,14 @@
         <v>96.58</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -1804,14 +1804,14 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>12650</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -1869,14 +1869,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -1939,14 +1939,14 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>80</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -2061,25 +2061,25 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>2606.0100000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -2121,14 +2121,14 @@
         <v>149.33000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>91</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>183.01</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -2170,14 +2170,14 @@
         <v>148.91999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>98</v>
       </c>
@@ -2219,14 +2219,14 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>100</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>102</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>35.46</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>56</v>
       </c>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>56</v>
       </c>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>104</v>
       </c>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>106</v>
       </c>
@@ -2356,14 +2356,14 @@
       </c>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>109</v>
       </c>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>113</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>115</v>
       </c>
@@ -2437,7 +2437,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>113</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>117</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>119</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>121</v>
       </c>
@@ -2508,7 +2508,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>126</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>127</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
         <v>129</v>
       </c>
@@ -2613,14 +2613,14 @@
         <v>131.29</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>131</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>132</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>135</v>
       </c>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>137</v>
       </c>
@@ -2687,26 +2687,26 @@
         <v>92.92</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>139</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>140</v>
       </c>
       <c r="B87" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C87" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2720,14 +2720,14 @@
       </c>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>141</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>142</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>144</v>
       </c>
@@ -2769,14 +2769,14 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>100</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>146</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>148</v>
       </c>
@@ -2860,14 +2860,14 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>151</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>153</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>155</v>
       </c>
@@ -2930,14 +2930,14 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>157</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>158</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>159</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>162</v>
       </c>
@@ -3000,14 +3000,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>163</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>164</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>166</v>
       </c>
@@ -3050,14 +3050,14 @@
       </c>
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>168</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>169</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>171</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>173</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>175</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>177</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>179</v>
       </c>
@@ -3183,12 +3183,12 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="C114" t="s">
         <v>161</v>
@@ -3197,16 +3197,16 @@
         <v>1</v>
       </c>
       <c r="E114" s="2">
-        <v>5.25</v>
+        <v>7.6</v>
       </c>
       <c r="F114" s="2">
         <f t="shared" si="2"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B115" t="s">
         <v>65</v>
@@ -3226,12 +3226,12 @@
       </c>
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B116" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C116" t="s">
         <v>161</v>
@@ -3247,12 +3247,12 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B117" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C117" t="s">
         <v>161</v>
@@ -3268,12 +3268,12 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B118" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C118" t="s">
         <v>161</v>
@@ -3289,12 +3289,12 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B119" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C119" t="s">
         <v>161</v>
@@ -3310,12 +3310,12 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B120" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C120" t="s">
         <v>161</v>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B121" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C121" t="s">
         <v>161</v>
@@ -3354,12 +3354,12 @@
       </c>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B122" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C122" t="s">
         <v>161</v>
@@ -3376,33 +3376,33 @@
       </c>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B126" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="G126" s="4"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B127" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C127" t="s">
         <v>38</v>
@@ -3437,9 +3437,9 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>145</v>
@@ -3458,12 +3458,12 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B129" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C129" t="s">
         <v>38</v>
@@ -3479,12 +3479,12 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>102</v>
       </c>
       <c r="B130" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C130" t="s">
         <v>38</v>
@@ -3500,9 +3500,9 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B131" t="s">
         <v>57</v>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="G131" s="4"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>72</v>
       </c>
@@ -3543,12 +3543,12 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B133" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C133" t="s">
         <v>38</v>
@@ -3564,9 +3564,9 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B134" t="s">
         <v>65</v>
@@ -3585,26 +3585,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B137" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C137" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -3618,15 +3618,15 @@
       </c>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B138" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C138" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -3640,15 +3640,15 @@
       </c>
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B139" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C139" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -3662,26 +3662,26 @@
       </c>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>218</v>
+      </c>
+      <c r="B142" t="s">
+        <v>219</v>
+      </c>
+      <c r="C142" t="s">
         <v>220</v>
-      </c>
-      <c r="B142" t="s">
-        <v>221</v>
-      </c>
-      <c r="C142" t="s">
-        <v>222</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -3695,15 +3695,15 @@
       </c>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B143" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C143" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -3717,15 +3717,15 @@
       </c>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B144" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C144" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -3739,15 +3739,15 @@
       </c>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B145" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C145" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -3761,15 +3761,15 @@
       </c>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B146" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C146" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -3783,15 +3783,15 @@
       </c>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B147" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C147" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -3805,15 +3805,15 @@
       </c>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B148" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C148" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -3827,15 +3827,15 @@
       </c>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B149" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C149" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -3849,15 +3849,15 @@
       </c>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B150" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C150" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -3871,12 +3871,12 @@
       </c>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B151" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C151" t="s">
         <v>38</v>
@@ -3892,12 +3892,12 @@
         <v>298.67</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B152" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C152" t="s">
         <v>38</v>
@@ -3913,13 +3913,13 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F154" s="2">
         <f>SUM(F2:F152)</f>
-        <v>80315.787000000011</v>
+        <v>80318.137000000017</v>
       </c>
     </row>
   </sheetData>
